--- a/Taxes rates by state.xlsx
+++ b/Taxes rates by state.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanpablo\Documents\Fall Classes\Applied Datascience\Network Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanpablo\Documents\PUI2015\ADS\ADS_ustaxrates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="148">
   <si>
     <t>State</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Arkansas</t>
   </si>
   <si>
-    <t>California (b)</t>
-  </si>
-  <si>
     <t>Colorado</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>Hawaii (c)</t>
-  </si>
-  <si>
     <t>Idaho</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Missouri</t>
   </si>
   <si>
-    <t>Montana (d)</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
@@ -117,12 +108,6 @@
     <t>New Hampshire</t>
   </si>
   <si>
-    <t>New Jersey (e)</t>
-  </si>
-  <si>
-    <t>New Mexico (c)</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
@@ -150,24 +135,15 @@
     <t>South Carolina</t>
   </si>
   <si>
-    <t>South Dakota (c)</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Utah (b)</t>
-  </si>
-  <si>
     <t>Vermont</t>
   </si>
   <si>
-    <t>Virginia (b)</t>
-  </si>
-  <si>
     <t>Washington</t>
   </si>
   <si>
@@ -180,9 +156,6 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>D.C.</t>
-  </si>
-  <si>
     <t>State Sales Tax Rate</t>
   </si>
   <si>
@@ -472,6 +445,30 @@
   </si>
   <si>
     <t>Corporate New Firm tax Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jersey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia </t>
+  </si>
+  <si>
+    <t>District of Columbia"</t>
   </si>
 </sst>
 </file>
@@ -861,11 +858,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -882,31 +881,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -935,10 +934,10 @@
         <v>0.05</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -946,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6">
         <v>1.7600000000000001E-2</v>
@@ -961,16 +960,16 @@
         <v>1.04E-2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -999,10 +998,10 @@
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1031,15 +1030,15 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1">
         <v>7.4999999999999997E-2</v>
@@ -1063,15 +1062,15 @@
         <v>0.12300000000000001</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>2.9000000000000001E-2</v>
@@ -1092,30 +1091,30 @@
         <v>4.6300000000000001E-2</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6">
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F8" s="6">
         <v>1.6299999999999999E-2</v>
@@ -1127,27 +1126,27 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F9" s="6">
         <v>4.3E-3</v>
@@ -1159,15 +1158,15 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.06</v>
@@ -1185,21 +1184,21 @@
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.04</v>
@@ -1223,15 +1222,15 @@
         <v>0.06</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1">
         <v>0.04</v>
@@ -1255,15 +1254,15 @@
         <v>0.11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>0.06</v>
@@ -1287,15 +1286,15 @@
         <v>7.400000000000001E-2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>6.25E-2</v>
@@ -1316,30 +1315,30 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F15" s="6">
         <v>8.5000000000000006E-3</v>
@@ -1348,18 +1347,18 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>0.06</v>
@@ -1383,15 +1382,15 @@
         <v>8.9800000000000005E-2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>6.1499999999999999E-2</v>
@@ -1415,27 +1414,27 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>0.06</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6">
         <v>0.06</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F18" s="6">
         <v>7.1999999999999998E-3</v>
@@ -1447,15 +1446,15 @@
         <v>0.06</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>0.04</v>
@@ -1479,27 +1478,27 @@
         <v>0.06</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>5.5E-2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D20" s="6">
         <v>5.5E-2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F20" s="6">
         <v>1.09E-2</v>
@@ -1511,27 +1510,27 @@
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>0.06</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21" s="6">
         <v>0.06</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F21" s="6">
         <v>8.6999999999999994E-3</v>
@@ -1543,27 +1542,27 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D22" s="6">
         <v>6.25E-2</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F22" s="6">
         <v>1.04E-2</v>
@@ -1572,30 +1571,30 @@
         <v>5.1500000000000004E-2</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>0.06</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D23" s="6">
         <v>0.06</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F23" s="6">
         <v>1.6199999999999999E-2</v>
@@ -1604,18 +1603,18 @@
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>6.8750000000000006E-2</v>
@@ -1639,15 +1638,15 @@
         <v>9.849999999999999E-2</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1671,15 +1670,15 @@
         <v>0.05</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>4.2250000000000003E-2</v>
@@ -1703,27 +1702,27 @@
         <v>0.06</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F27" s="6">
         <v>8.3000000000000001E-3</v>
@@ -1735,15 +1734,15 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>5.5E-2</v>
@@ -1767,15 +1766,15 @@
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
         <v>6.8500000000000005E-2</v>
@@ -1793,53 +1792,53 @@
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F30" s="6">
         <v>1.8599999999999998E-2</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1">
         <v>7.0000000000000007E-2</v>
@@ -1863,15 +1862,15 @@
         <v>8.9700000000000002E-2</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="B32" s="1">
         <v>5.1249999999999997E-2</v>
@@ -1895,15 +1894,15 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <v>0.04</v>
@@ -1927,15 +1926,15 @@
         <v>8.8200000000000001E-2</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
         <v>4.7500000000000001E-2</v>
@@ -1956,18 +1955,18 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1">
         <v>0.05</v>
@@ -1991,15 +1990,15 @@
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1">
         <v>5.7500000000000002E-2</v>
@@ -2023,15 +2022,15 @@
         <v>5.3330000000000002E-2</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1">
         <v>4.4999999999999998E-2</v>
@@ -2055,27 +2054,27 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F38" s="6">
         <v>8.6999999999999994E-3</v>
@@ -2087,15 +2086,15 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1">
         <v>0.06</v>
@@ -2116,30 +2115,30 @@
         <v>3.0699999999999998E-2</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D40" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F40" s="6">
         <v>1.35E-2</v>
@@ -2151,15 +2150,15 @@
         <v>5.9900000000000002E-2</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1">
         <v>0.06</v>
@@ -2183,15 +2182,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="B42" s="1">
         <v>0.04</v>
@@ -2209,21 +2208,21 @@
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
         <v>7.0000000000000007E-2</v>
@@ -2241,21 +2240,21 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1">
         <v>6.25E-2</v>
@@ -2273,21 +2272,21 @@
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="B45" s="1">
         <v>5.9499999999999997E-2</v>
@@ -2308,18 +2307,18 @@
         <v>0.05</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1">
         <v>0.06</v>
@@ -2343,15 +2342,15 @@
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B47" s="1">
         <v>5.2999999999999999E-2</v>
@@ -2375,15 +2374,15 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1">
         <v>6.5000000000000002E-2</v>
@@ -2401,21 +2400,21 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1">
         <v>0.06</v>
@@ -2439,15 +2438,15 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1">
         <v>0.05</v>
@@ -2471,15 +2470,15 @@
         <v>7.6499999999999999E-2</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1">
         <v>0.04</v>
@@ -2497,33 +2496,33 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="B52" s="1">
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D52" s="6">
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F52" s="6">
         <v>4.5999999999999999E-3</v>
@@ -2535,10 +2534,10 @@
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2566,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2577,10 +2576,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,10 +2587,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2599,10 +2598,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2610,516 +2609,516 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Taxes rates by state.xlsx
+++ b/Taxes rates by state.xlsx
@@ -858,9 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
